--- a/Data/BigData.xlsx
+++ b/Data/BigData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merluee/Library/Mobile Documents/com~apple~CloudDocs/FAU Docs/Lessons/Big Data Seminar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merluee/PycharmProjects/BigData/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3854AE-CDA1-8340-8C66-F5AA8A21BCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBC6ED1-D9C9-B94A-BE7A-26402FB0D824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="4200" windowWidth="33500" windowHeight="21100" activeTab="2" xr2:uid="{9D0E6FD6-93F6-5D4F-BF3A-90A77E3A6C6E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33500" windowHeight="21100" activeTab="2" xr2:uid="{9D0E6FD6-93F6-5D4F-BF3A-90A77E3A6C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Wettbewerbe" sheetId="1" r:id="rId1"/>
@@ -421,62 +421,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Wettbewerbarten der letzten 80 Wettbewerben</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -507,6 +452,62 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Wettbewerbe!$A$2:$A$8</c:f>
@@ -574,14 +575,13 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="199"/>
         <c:axId val="523491455"/>
         <c:axId val="1305882944"/>
       </c:barChart>
@@ -614,7 +614,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -657,6 +657,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -700,6 +714,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -714,6 +759,383 @@
   <c:spPr>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Algo Ana'!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Anzahl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Algo Ana'!$A$15:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>KMeans</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SpectralClustering</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AgglomerativeClustering</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Birch</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GaussianMixture</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MiniBatchKMeans</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DBSCAN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>OPTICS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BayesianGaussianMixture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Algo Ana'!$D$15:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D5D-9049-9861-773DB1C3EE07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="80"/>
+        <c:overlap val="25"/>
+        <c:axId val="731059119"/>
+        <c:axId val="754026943"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="731059119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="754026943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="754026943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="731059119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -765,27 +1187,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Wettbewerb</a:t>
+              <a:t>Wettbewerb Notebook Analyse</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Notebook Analyse</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -802,16 +1219,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1023,7 +1440,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
+        <c:gapWidth val="247"/>
         <c:axId val="1835604031"/>
         <c:axId val="1835425631"/>
       </c:barChart>
@@ -1034,15 +1451,29 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -1056,9 +1487,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -1089,7 +1520,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1117,7 +1548,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -1135,7 +1566,17 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1159,7 +1600,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -1179,11 +1620,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1225,6 +1666,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Anzahl Clustering Algorhytmus</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1238,16 +1704,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1266,11 +1732,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Algo Ana'!$H$14</c:f>
+              <c:f>'Algo Ana'!$I$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Score</c:v>
+                  <c:v>Anzahl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1322,36 +1788,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Algo Ana'!$H$15:$H$23</c:f>
+              <c:f>'Algo Ana'!$I$15:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.29666666666666669</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34666666666666668</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52333333333333332</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1225</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31666666666666665</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1359,107 +1825,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7924-C348-9117-368A9C76624D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Algo Ana'!$I$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Anzahl</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Algo Ana'!$G$15:$G$23</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>SpectralClustering</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPTICS</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MiniBatchKMeans</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>KMeans</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>GaussianMixture</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DBSCAN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Birch</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>BayesianGaussianMixture</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>AgglomerativeClustering</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Algo Ana'!$I$15:$I$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7924-C348-9117-368A9C76624D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1471,7 +1836,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
+        <c:gapWidth val="247"/>
         <c:axId val="1835134607"/>
         <c:axId val="478838175"/>
       </c:barChart>
@@ -1482,15 +1847,29 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -1504,9 +1883,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -1537,7 +1916,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1565,7 +1944,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -1583,7 +1962,17 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1607,7 +1996,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -1627,7 +2016,2246 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scoring Clustering Algorhytmus</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Algo Ana'!$G$15:$G$23</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>SpectralClustering</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OPTICS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MiniBatchKMeans</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KMeans</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GaussianMixture</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DBSCAN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Birch</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BayesianGaussianMixture</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>AgglomerativeClustering</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Algo Ana'!$H$15:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.29666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31666666666666665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4989-E042-9034-ACC9FA935C83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="247"/>
+        <c:axId val="1876521904"/>
+        <c:axId val="1876523616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1876521904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1876523616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1876523616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1876521904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Algo Ana'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Algo Ana'!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>KMeans</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AgglomerativeClustering</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Birch</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DBSCAN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SpectralClustering</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GaussianMixture</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MiniBatchKMeans</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>OPTICS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BayesianGaussianMixture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Algo Ana'!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CA9-1844-B2C9-87A4F86EFE69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="80"/>
+        <c:overlap val="25"/>
+        <c:axId val="1876617440"/>
+        <c:axId val="1876699312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1876617440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1876699312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1876699312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1876617440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Algo Ana'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Algo Ana'!$A$15:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>KMeans</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SpectralClustering</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AgglomerativeClustering</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Birch</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GaussianMixture</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MiniBatchKMeans</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DBSCAN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>OPTICS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BayesianGaussianMixture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Algo Ana'!$B$15:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-928A-5B44-BDD2-FEAF8B70F88C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="80"/>
+        <c:overlap val="25"/>
+        <c:axId val="782289903"/>
+        <c:axId val="782506255"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="782289903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782506255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="782506255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782289903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Algo Ana'!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Algo Ana'!$A$27:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>KMeans</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GaussianMixture</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BayesianGaussianMixture</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DBSCAN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AgglomerativeClustering</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MiniBatchKMeans</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>OPTICS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Birch</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SpectralClustering</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Algo Ana'!$B$27:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0929-EE4C-9470-25B9215186F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="80"/>
+        <c:overlap val="25"/>
+        <c:axId val="600248687"/>
+        <c:axId val="782667455"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="600248687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782667455"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="782667455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="600248687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Algo Ana'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Anzahl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Algo Ana'!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>KMeans</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AgglomerativeClustering</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Birch</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DBSCAN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SpectralClustering</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GaussianMixture</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MiniBatchKMeans</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>OPTICS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BayesianGaussianMixture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Algo Ana'!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF25-7C40-9E70-09CAEF3E8527}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="80"/>
+        <c:overlap val="25"/>
+        <c:axId val="782273279"/>
+        <c:axId val="729701103"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="782273279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="729701103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="729701103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782273279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Algo Ana'!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Anzahl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Algo Ana'!$A$27:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>KMeans</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GaussianMixture</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BayesianGaussianMixture</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DBSCAN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AgglomerativeClustering</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MiniBatchKMeans</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>OPTICS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Birch</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SpectralClustering</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Algo Ana'!$D$27:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B9B7-BC40-8082-96E343D10947}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="80"/>
+        <c:overlap val="25"/>
+        <c:axId val="687659295"/>
+        <c:axId val="754403343"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="687659295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="754403343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="754403343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687659295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1659,6 +4287,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1778,8 +4446,248 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1790,7 +4698,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1813,14 +4721,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1836,7 +4744,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1856,22 +4764,17 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1880,35 +4783,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1917,33 +4830,29 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1965,15 +4874,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1988,15 +4895,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2007,126 +4914,119 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2147,7 +5047,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -2155,7 +5055,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2168,6 +5068,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2175,10 +5086,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2193,13 +5104,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+    <cs:fontRef idx="major">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2208,14 +5119,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2245,8 +5156,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2269,20 +5180,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2293,7 +5198,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2306,6 +5211,29 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -2317,29 +5245,6 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2358,23 +5263,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2383,35 +5280,545 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="221">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2423,30 +5830,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2462,16 +5873,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2479,14 +5889,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2497,9 +5907,9 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2511,12 +5921,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -2530,14 +5940,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2549,13 +5959,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
@@ -2563,12 +5980,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2582,12 +5999,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -2601,14 +6018,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2620,12 +6037,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -2639,35 +6056,53 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:plotArea3D>
   <cs:seriesAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -2679,12 +6114,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -2697,13 +6132,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2712,14 +6147,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2728,7 +6162,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -2740,7 +6174,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2748,9 +6182,9 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2762,7 +6196,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -2774,38 +6208,45 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="221">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -2813,7 +6254,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2821,22 +6262,22 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2844,14 +6285,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
@@ -2888,35 +6329,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2928,30 +6379,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2967,16 +6422,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2984,14 +6438,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3002,9 +6456,9 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3016,12 +6470,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -3035,14 +6489,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3054,13 +6508,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
@@ -3068,12 +6529,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3087,12 +6548,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -3106,14 +6567,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3125,12 +6586,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -3144,35 +6605,53 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:plotArea3D>
   <cs:seriesAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -3184,12 +6663,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -3202,13 +6681,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3217,18 +6696,638 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
   <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="221">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
+  <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3238,14 +7337,37 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3254,15 +7376,138 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3272,21 +7517,2270 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3295,16 +9789,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3342,10 +9836,10 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3377,16 +9871,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3406,6 +9900,258 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84FE2EA6-207A-FE1E-8577-82F06DD0CE38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{933F3FB3-470F-6193-677C-534EFE252A9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA878CB9-B7E9-4391-1957-5D8979D84843}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{918198C9-407C-ABA8-EE53-109FAD5BFB38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E8AB68-F8A6-9293-03D4-2387472EB5AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BF15EB3-FE4B-18D9-5DC4-E25AD1DBC376}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{753E625E-924B-76D6-D8BE-275A58BAD614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3460,6 +10206,9 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3A1A24A4-DEA4-C944-A96F-414AA22559D3}" name="Table15" displayName="Table15" ref="A14:D23" totalsRowShown="0">
   <autoFilter ref="A14:D23" xr:uid="{3A1A24A4-DEA4-C944-A96F-414AA22559D3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:D23">
+    <sortCondition descending="1" ref="D14:D23"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7F6391D2-69FA-4D47-A472-44A0358B8DBD}" name="Model" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{A047A5CE-876A-5E49-8B8B-5F438BB671AB}" name="Score" dataDxfId="5"/>
@@ -3473,6 +10222,9 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E363F362-69FD-BF40-88D2-DACDBC9DA489}" name="Table156" displayName="Table156" ref="A26:D35" totalsRowShown="0">
   <autoFilter ref="A26:D35" xr:uid="{E363F362-69FD-BF40-88D2-DACDBC9DA489}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A27:D35">
+    <sortCondition descending="1" ref="D26:D35"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9E68592E-45A1-8E42-BEB6-AD6F725FDBBF}" name="Model" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{CFFC9B01-E1B4-5C41-B157-80293B877441}" name="Score" dataDxfId="3"/>
@@ -3825,7 +10577,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3899,7 +10651,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -3915,7 +10667,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4053,7 +10805,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="82" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -4066,11 +10818,12 @@
   <dimension ref="A2:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="A1:D11"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4254,76 +11007,76 @@
         <v>27</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15" si="0">AVERAGE(B31,B19,B7)</f>
+        <f>AVERAGE(B35,B16,B7)</f>
         <v>0.29666666666666669</v>
       </c>
       <c r="I15">
-        <f t="shared" ref="I15" si="1">SUM(D7,D19,D31)</f>
+        <f>SUM(D7,D16,D35)</f>
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16" s="6">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H16">
-        <f>AVERAGE(B34,B22,B10)</f>
+        <f>AVERAGE(B33,B22,B10)</f>
         <v>0</v>
       </c>
       <c r="I16">
-        <f>SUM(D10,D22,D34)</f>
+        <f>SUM(D10,D22,D33)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="6">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H17" s="5">
-        <f>AVERAGE(B9,B21,B33)</f>
+        <f>AVERAGE(B9,B20,B32)</f>
         <v>0.34666666666666668</v>
       </c>
       <c r="I17">
-        <f>SUM(D9,D21,D33)</f>
+        <f>SUM(D9,D20,D32)</f>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>26</v>
+      <c r="A18" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B18" s="6">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" t="s">
         <v>23</v>
@@ -4339,35 +11092,35 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="6">
-        <v>0.89</v>
+        <v>0.47</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H19">
-        <f>AVERAGE(B32,B20,B8)</f>
+        <f>AVERAGE(B28,B19,B8)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="I19">
-        <f>SUM(D8,D20,D32)</f>
+        <f>SUM(D8,D19,D28)</f>
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="6">
-        <v>0.47</v>
+        <v>0.84</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -4379,36 +11132,36 @@
         <v>26</v>
       </c>
       <c r="H20">
-        <f>AVERAGE(B30,B18,B6)</f>
+        <f>AVERAGE(B30,B21,B6)</f>
         <v>0</v>
       </c>
       <c r="I20">
-        <f>SUM(D6,D18,D30)</f>
+        <f>SUM(D6,D21,D30)</f>
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>29</v>
+      <c r="A21" t="s">
+        <v>26</v>
       </c>
       <c r="B21" s="6">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H21">
-        <f>AVERAGE(B29,B17,B5)</f>
+        <f>AVERAGE(B34,B18,B5)</f>
         <v>0.43</v>
       </c>
       <c r="I21">
-        <f>SUM(D29,D17,D5)</f>
+        <f>SUM(D34,D18,D5)</f>
         <v>6</v>
       </c>
     </row>
@@ -4429,11 +11182,11 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <f>AVERAGE(B23,B35,B11,)</f>
+        <f>AVERAGE(B23,B29,B11,)</f>
         <v>0.1225</v>
       </c>
       <c r="I22">
-        <f>SUM(D11,D23,D35)</f>
+        <f>SUM(D11,D23,D29)</f>
         <v>14</v>
       </c>
     </row>
@@ -4454,11 +11207,11 @@
         <v>24</v>
       </c>
       <c r="H23">
-        <f>AVERAGE(B28,B16,B4)</f>
+        <f>AVERAGE(B31,B17,B4)</f>
         <v>0.31666666666666665</v>
       </c>
       <c r="I23">
-        <f>SUM(D4,D16,D28)</f>
+        <f>SUM(D4,D17,D31)</f>
         <v>21</v>
       </c>
     </row>
@@ -4492,30 +11245,30 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B28" s="6">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>25</v>
+      <c r="A29" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B29" s="6">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -4534,77 +11287,78 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B31" s="6">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>29</v>
+      <c r="A33" t="s">
+        <v>30</v>
       </c>
       <c r="B33" s="6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>30</v>
+      <c r="A34" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B34" s="6">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>31</v>
+      <c r="A35" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B35" s="6">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D35">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <tableParts count="4">
     <tablePart r:id="rId2"/>
